--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaSampleProjects\FinTech\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315D473C-222B-4173-ADFB-79D8C79805DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3FAE3-D820-49E1-9AB7-43CBFA35ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>testing</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>srividhyaa@test.com</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>AltError</t>
+  </si>
+  <si>
+    <t>An internal error has occurred and has been logged.</t>
   </si>
 </sst>
 </file>
@@ -167,10 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,93 +465,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F7C34-880C-4C62-A888-54D235FDDBEF}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +736,7 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2">
